--- a/data/trans_orig/P36_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36_R3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB08F3B-C035-4FFB-BD7E-9B68C71A8D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{052ABB94-1A85-4D34-B77D-64E2BB6EC073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BBAA0DB9-0B9C-4D34-B55D-AD41D2240A79}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAC27E97-8830-4822-85B6-F53A116D2C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población con una adherencia alta a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>27,84%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>NO</t>
@@ -104,28 +104,28 @@
     <t>72,16%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
   <si>
     <t>71,15%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,112 +137,112 @@
     <t>19,58%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
     <t>17,99%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>22,71%</t>
   </si>
   <si>
     <t>80,42%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>76,16%</t>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>82,01%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>85,8%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>17,27%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>20,63%</t>
   </si>
   <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>79,37%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>82,2%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FAA416-4BC7-4A12-897A-371C88C8EF97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09688FC8-85F2-4290-8E1B-3919DEA62CDD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1337,7 +1331,7 @@
         <v>1938</v>
       </c>
       <c r="N11" s="7">
-        <v>1645646</v>
+        <v>1645647</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1388,7 +1382,7 @@
         <v>2320</v>
       </c>
       <c r="N12" s="7">
-        <v>1946670</v>
+        <v>1946671</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1602,10 +1596,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1614,13 @@
         <v>766554</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1211</v>
@@ -1635,13 +1629,13 @@
         <v>891588</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>2013</v>
@@ -1650,13 +1644,13 @@
         <v>1658141</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>534081</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>987</v>
@@ -1739,13 +1733,13 @@
         <v>665897</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1559</v>
@@ -1754,13 +1748,13 @@
         <v>1199978</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>2615845</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4078</v>
@@ -1790,28 +1784,28 @@
         <v>2924619</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6683</v>
       </c>
       <c r="N20" s="7">
-        <v>5540464</v>
+        <v>5540463</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1847,7 @@
         <v>8242</v>
       </c>
       <c r="N21" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36_R3-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052ABB94-1A85-4D34-B77D-64E2BB6EC073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1447DA07-4AFC-4E70-8388-CA6D2A3ABCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAC27E97-8830-4822-85B6-F53A116D2C7B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC235852-2480-4C55-9AFE-A017335F4456}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>SÍ</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>19,58%</t>
@@ -188,7 +188,7 @@
     <t>82,01%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>14,2%</t>
@@ -245,7 +245,7 @@
     <t>86,24%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09688FC8-85F2-4290-8E1B-3919DEA62CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E643F5A-FBC5-485A-BD57-E1216AD29741}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
